--- a/test/Sample data/GUCHamb_timeDelta.xlsx
+++ b/test/Sample data/GUCHamb_timeDelta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="11245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="9742"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Visit1</t>
   </si>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -438,15 +438,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>

--- a/test/Sample data/GUCHamb_timeDelta.xlsx
+++ b/test/Sample data/GUCHamb_timeDelta.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -371,7 +372,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -402,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -479,6 +480,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
